--- a/biology/Médecine/Fritz_de_Quervain/Fritz_de_Quervain.xlsx
+++ b/biology/Médecine/Fritz_de_Quervain/Fritz_de_Quervain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fritz de Quervain, né à Sion le 4 mai 1868 et mort le 24 janvier 1940 à Berne[1], est un chirurgien suisse, spécialiste de la thyroïde.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fritz de Quervain, né à Sion le 4 mai 1868 et mort le 24 janvier 1940 à Berne, est un chirurgien suisse, spécialiste de la thyroïde.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille est de souche bretonne (la terre de Kerven en breton) et un des aïeux protestant émigre à Vevey au XVIIe siècle. Fritz de Quervain est le fils ainé d'un pasteur, père de dix enfants.
 Il passe son doctorat en 1892 à l'Université de Berne et devient en 1897 directeur du département de chirurgie à l'hôpital de La Chaux-de-Fonds. Nommé en 1910 à la chaire de chirurgie à l'Université de Berne en succession d'Emil Theodor Kocher, il est professeur de chirurgie de 1910 à 1918 puis directeur de l'Hôpital de Berne après 1918. Il est nommé recteur de l'Université de Berne de 1935 à 1936. Reconnu comme un des grands spécialistes des maladies de la thyroïde, on lui doit l'utilisation du sel de table iodé dans la prévention du goitre.
@@ -543,7 +557,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il a publié de nombreux articles consacrés aux maladies de la thyroïde, notamment leur épidémiologie.
 (de) « Über eine Form von chronischer Tendovaginitis », Correspondenz-Blatt für Schweizer Arzte, 1895,Vol. 25, pp. 389–94, Texte intégral.
@@ -583,7 +599,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tendinite de De Quervain : inflammation de la gaine qui entoure deux tendons contrôlant le mouvement du pouce.
 Thyroïdite subaiguë de De Quervain : inflammation non bactérienne de la glande thyroïde, souvent après une infection virale des voies respiratoires.
